--- a/joint_descriptions.xlsx
+++ b/joint_descriptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chpax\Documents\Projects\6-DOF-Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Projects\6-DOF-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7C2147-B34F-4FCA-A86B-114811E5323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A1A2A-C778-4EEB-98F5-862FBFD6ADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{42C8962F-D2EC-44F5-9A1E-E3A5A3E40F9B}"/>
+    <workbookView xWindow="21857" yWindow="6746" windowWidth="18686" windowHeight="16183" xr2:uid="{42C8962F-D2EC-44F5-9A1E-E3A5A3E40F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,18 +444,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -542,17 +542,17 @@
         <v>0.6</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <f>C5*D5</f>
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -563,17 +563,17 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <f>C6*D6</f>
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -584,11 +584,11 @@
         <v>0.6</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <f>C7*D7</f>
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>

--- a/joint_descriptions.xlsx
+++ b/joint_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Projects\6-DOF-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A1A2A-C778-4EEB-98F5-862FBFD6ADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63157CF0-EF5D-473D-AA37-E192E82DE114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21857" yWindow="6746" windowWidth="18686" windowHeight="16183" xr2:uid="{42C8962F-D2EC-44F5-9A1E-E3A5A3E40F9B}"/>
+    <workbookView xWindow="26120" yWindow="-8770" windowWidth="16200" windowHeight="28050" xr2:uid="{42C8962F-D2EC-44F5-9A1E-E3A5A3E40F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,11 +542,11 @@
         <v>0.6</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <f>C5*D5</f>
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -563,11 +563,11 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <f>C6*D6</f>
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -584,11 +584,11 @@
         <v>0.6</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <f>C7*D7</f>
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
